--- a/Website/Sampledata.xlsx
+++ b/Website/Sampledata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a4090e471ff419/Documents/MFinA/FINC 591 - Integrated Financial Analysis ^0 Strategy/NNPS - Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03a4090e471ff419/Documents/GitHub/streamlit/Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="23" documentId="8_{9E6888BC-BD66-4A19-A996-26C9EF19661D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23713953-A61F-4CCA-B513-00A3F782FA4F}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -385,10 +385,10 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -399,7 +399,7 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
